--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_SkillForget.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_SkillForget.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25417BF9-5CCB-417C-8260-272B0715F3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEECE461-7A21-42AC-8FD6-4B853EDA598B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -188,12 +177,42 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SkillForget</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>遗忘特定技能</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillForget_1</t>
+  </si>
+  <si>
+    <t>SkillForget_2</t>
+  </si>
+  <si>
+    <r>
+      <t>SkillForget_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NormalAttack</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalAttack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillForget_ManualSkill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManualSkill</t>
   </si>
 </sst>
 </file>
@@ -268,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -291,17 +310,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -312,7 +320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -320,7 +328,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -598,50 +605,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="9" width="33.77734375" customWidth="1"/>
-    <col min="10" max="10" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="7" width="33.75" customWidth="1"/>
+    <col min="8" max="8" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="I1"/>
+      <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
@@ -657,10 +663,8 @@
       <c r="W1"/>
       <c r="X1"/>
       <c r="Y1"/>
-      <c r="Z1"/>
-      <c r="AA1"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -671,8 +675,8 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="I2"/>
+      <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -688,36 +692,34 @@
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="I3"/>
+      <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -733,24 +735,22 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="I4"/>
+      <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
@@ -766,36 +766,34 @@
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="I5"/>
+      <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
@@ -811,56 +809,63 @@
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="str">
-        <f>B6&amp;"_"&amp;C6</f>
-        <v>SkillForget_1</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="7">
+      <c r="G6">
         <v>-1</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="H6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="str">
-        <f>B7&amp;"_"&amp;C7</f>
-        <v>SkillForget_2</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="7">
+      <c r="G7">
         <v>-1</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10" t="s">
         <v>25</v>
       </c>
     </row>
